--- a/data/trans_dic/P1805-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1805-Provincia-trans_dic.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">

--- a/data/trans_dic/P1805-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1805-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,48 +544,84 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -606,17 +661,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +681,37 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7,27%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2,7%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>5,45%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,97%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>0; 0,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>1,81; 6,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,0; 3,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0; 0,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4,7; 11,25</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1,52; 4,31</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,37</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>3,76; 7,91</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1,14; 3,28</t>
         </is>
       </c>
     </row>
@@ -691,12 +806,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -707,6 +822,36 @@
       <c r="H6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1,16%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4,17%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0,79%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>4,07%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0; 0,41</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,41</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,31</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2,38; 7,23</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,38</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0; 0,4</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,5</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,4</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,27</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0,38; 2,34</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2,84; 6,88</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>0; 0,2</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,17</t>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,2</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0,38; 1,47</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2,86; 5,73</t>
         </is>
       </c>
     </row>
@@ -771,12 +946,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -787,6 +962,36 @@
       <c r="H8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4,46%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>5,43%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3,09%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>4,28%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0; 0,62</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,6</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0,6; 3,56</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1,49; 5,67</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>0; 0,57</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,53</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,58</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,36</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,29</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0; 0,6</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2,44; 7,41</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3,85; 7,94</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,3</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,3</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1,84; 4,84</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3,02; 5,76</t>
         </is>
       </c>
     </row>
@@ -851,12 +1086,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -867,6 +1102,36 @@
       <c r="H10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3,25%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>5,53%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2,88%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>5,97%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>0; 0,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>0; 0,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>1,27; 4,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>3,7; 10,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0; 0,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0; 0,31</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1,79; 5,65</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3,69; 8,03</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,26</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,15</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1,81; 4,32</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>4,4; 8,21</t>
         </is>
       </c>
     </row>
@@ -931,12 +1226,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -947,6 +1242,36 @@
       <c r="H12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,71%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,54%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2,36%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1,19%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>0; 0,93</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,97</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1,2; 6,34</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,57</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,96</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>0; 0,9</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,69</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,86</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,39</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,44</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,25</t>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0,44; 3,97</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,68; 3,03</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,47</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,47</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1,12; 4,2</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0,61; 2,2</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1366,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1027,6 +1382,36 @@
       <c r="H14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3,87%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>3,39%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2,53%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>3,03%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>0; 0,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>0; 0,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>0,0; 2,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>1,4; 5,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0; 0,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0; 0,71</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1,91; 6,64</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1,96; 5,35</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,36</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,36</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1,36; 4,18</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2,08; 4,34</t>
         </is>
       </c>
     </row>
@@ -1091,12 +1506,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1107,6 +1522,36 @@
       <c r="H16" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>3,41%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>6,09%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2,23%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>5,57%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0; 0,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0; 0,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
+          <t>0,36; 2,12</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3,11; 7,94</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,31</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>0; 0,3</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,2</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2,07; 5,32</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3,56; 8,52</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
         <is>
           <t>0; 0,16</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,12</t>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,15</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1,47; 3,15</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>4,07; 7,09</t>
         </is>
       </c>
     </row>
@@ -1171,12 +1646,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1187,6 +1662,36 @@
       <c r="H18" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4,64%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2,56%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3,51%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>2,47%</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1709,57 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
+          <t>0; 0,27</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1,47; 3,55</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1,44; 3,67</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,26</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>0; 0,25</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,25</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,18</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3,24; 6,46</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1,71; 3,77</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>0; 0,13</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,11</t>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,13</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>2,66; 4,56</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>1,87; 3,35</t>
         </is>
       </c>
     </row>
@@ -1251,12 +1786,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1267,6 +1802,36 @@
       <c r="H20" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3,69%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>4,16%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>2,77%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>3,8%</t>
         </is>
       </c>
     </row>
@@ -1289,22 +1854,52 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
+          <t>1,39; 2,31</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2,66; 4,14</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,04</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,06</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>3,07; 4,4</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>3,61; 4,88</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
         <is>
           <t>0; 0,03</t>
         </is>
       </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,02</t>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,03</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>2,37; 3,22</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>3,33; 4,31</t>
         </is>
       </c>
     </row>
@@ -1318,16 +1913,16 @@
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>

--- a/data/trans_dic/P1805-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1805-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>1,9%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,16</t>
+          <t>0,0; 3,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,52; 4,31</t>
+          <t>1,54; 4,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,36</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,28</t>
+          <t>1,09; 3,27</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>4,02%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,38; 7,23</t>
+          <t>2,39; 7,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,84; 6,88</t>
+          <t>2,79; 6,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,86; 5,73</t>
+          <t>2,79; 5,66</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>4,27%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 5,67</t>
+          <t>1,5; 5,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,85; 7,94</t>
+          <t>3,84; 7,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,02; 5,76</t>
+          <t>2,98; 5,78</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>5,35%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0; 0,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,7; 10,13</t>
+          <t>3,74; 10,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0; 0,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,69; 8,03</t>
+          <t>2,42; 6,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0; 0,27</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,4; 8,21</t>
+          <t>3,54; 7,58</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,57</t>
+          <t>0,0; 2,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,03</t>
+          <t>0,69; 3,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,2</t>
+          <t>0,62; 2,19</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>2,98%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,4; 5,08</t>
+          <t>1,38; 4,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,96; 5,35</t>
+          <t>1,95; 5,31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,34</t>
+          <t>2,04; 4,26</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>5,18%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,11; 7,94</t>
+          <t>3,11; 8,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,56; 8,52</t>
+          <t>2,28; 7,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,07; 7,09</t>
+          <t>3,25; 6,79</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,17%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,67</t>
+          <t>0,69; 3,14</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,71; 3,77</t>
+          <t>1,71; 3,74</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>1,87; 3,35</t>
+          <t>1,24; 2,98</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>3,59%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,66; 4,14</t>
+          <t>2,38; 3,98</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>3,61; 4,88</t>
+          <t>3,26; 4,64</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>3,33; 4,31</t>
+          <t>3,02; 4,16</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P1805-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1805-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -734,12 +735,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,81; 6,62</t>
+          <t>1,73; 6,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,21</t>
+          <t>0,32; 3,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,12 +755,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,7; 11,25</t>
+          <t>4,65; 10,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,54; 4,3</t>
+          <t>1,5; 4,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -774,19 +775,19 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,76; 7,91</t>
+          <t>3,63; 7,47</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,27</t>
+          <t>1,12; 3,08</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -874,12 +875,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,31</t>
+          <t>0,0; 1,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,39; 7,46</t>
+          <t>2,08; 6,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -894,12 +895,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,34</t>
+          <t>0,39; 2,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,79; 6,54</t>
+          <t>2,76; 6,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -914,19 +915,19 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,47</t>
+          <t>0,39; 1,58</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,79; 5,66</t>
+          <t>2,77; 5,64</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1014,12 +1015,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,56</t>
+          <t>0,62; 3,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,5; 5,76</t>
+          <t>1,52; 5,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1034,12 +1035,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 7,41</t>
+          <t>2,51; 7,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,84; 7,95</t>
+          <t>3,64; 7,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,12 +1055,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,84; 4,84</t>
+          <t>1,9; 4,92</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,98; 5,78</t>
+          <t>3,11; 6,06</t>
         </is>
       </c>
     </row>
@@ -1154,12 +1155,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,27; 4,66</t>
+          <t>1,3; 4,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,74; 10,28</t>
+          <t>3,94; 10,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1174,12 +1175,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,79; 5,65</t>
+          <t>1,85; 5,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,42; 6,79</t>
+          <t>2,58; 6,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1194,12 +1195,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 4,32</t>
+          <t>1,84; 4,43</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,54; 7,58</t>
+          <t>3,51; 7,5</t>
         </is>
       </c>
     </row>
@@ -1294,12 +1295,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,2; 6,34</t>
+          <t>0,99; 6,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,55</t>
+          <t>0,0; 3,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1314,12 +1315,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 3,97</t>
+          <t>0,45; 3,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,06</t>
+          <t>0,71; 2,97</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1334,19 +1335,19 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,12; 4,2</t>
+          <t>1,23; 4,41</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,19</t>
+          <t>0,58; 2,14</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1434,12 +1435,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,86</t>
+          <t>0,15; 2,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,38; 4,97</t>
+          <t>1,29; 4,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1454,12 +1455,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,91; 6,64</t>
+          <t>1,97; 7,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,95; 5,31</t>
+          <t>2,02; 5,53</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1474,19 +1475,19 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,36; 4,18</t>
+          <t>1,38; 4,28</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,04; 4,26</t>
+          <t>2,0; 4,33</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1574,12 +1575,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,12</t>
+          <t>0,35; 2,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,11; 8,17</t>
+          <t>3,2; 8,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1594,12 +1595,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,07; 5,32</t>
+          <t>2,12; 5,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,28; 7,84</t>
+          <t>2,52; 7,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1614,12 +1615,12 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,47; 3,15</t>
+          <t>1,42; 3,18</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,25; 6,79</t>
+          <t>3,06; 6,97</t>
         </is>
       </c>
     </row>
@@ -1714,12 +1715,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,47; 3,55</t>
+          <t>1,34; 3,65</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,14</t>
+          <t>0,7; 3,04</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1734,12 +1735,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,24; 6,46</t>
+          <t>3,2; 6,33</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,71; 3,74</t>
+          <t>1,77; 3,72</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1754,12 +1755,12 @@
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2,66; 4,56</t>
+          <t>2,65; 4,66</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,98</t>
+          <t>1,26; 2,94</t>
         </is>
       </c>
     </row>
@@ -1854,12 +1855,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,31</t>
+          <t>1,39; 2,27</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,38; 3,98</t>
+          <t>2,4; 4,02</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1874,12 +1875,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,07; 4,4</t>
+          <t>3,05; 4,35</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>3,26; 4,64</t>
+          <t>3,1; 4,67</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1894,12 +1895,12 @@
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>2,37; 3,22</t>
+          <t>2,38; 3,16</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>3,02; 4,16</t>
+          <t>3,08; 4,18</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que en los últimos 12 meses han visitado un psicologo o psicoterapeuta</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>10746</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3691</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>20993</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>7734</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>31739</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>11425</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1926</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1999</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5076; 19292</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>998; 10976</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2035</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2145</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>13427; 31698</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4347; 12418</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1983</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2073</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>21120; 43528</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>6738; 18525</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2033</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>20484</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6087</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>20973</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>8120</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>41457</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2031</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2052</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6734</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>10801; 35339</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1935</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2091</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2057; 12136</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>14194; 32211</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1984</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2074</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3994; 16233</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>28600; 58259</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5204</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>9380</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>15009</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>18993</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>20213</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>28373</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1944</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1986; 11079</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4816; 17759</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1916</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2058</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8429; 26437</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>12698; 27046</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1945</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2005</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>12468; 32247</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>20698; 40305</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>9234</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>20469</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>12572</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>21690</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>21807</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>42159</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1897</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2081</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4799; 18254</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>12301; 33465</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1852</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2007</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>7168; 20966</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>12273; 33056</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1877</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2046</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>13909; 33553</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>27701; 59084</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6416</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1366</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3736</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3238</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>10152</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>4604</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1885</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2071</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2099; 12844</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5468</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2002</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1978</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>976; 8533</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1483; 6201</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1948</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2029</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>5273; 18974</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>2246; 8296</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2971</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>7052</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>10569</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>8630</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>13540</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>15682</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1947</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2007</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>404; 7856</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3481; 13164</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1970</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1991</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>5386; 19821</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>5183; 14208</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1963</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2003</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>7404; 22928</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>10538; 22822</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>6501</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>31240</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>23601</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>45028</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>30101</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>76268</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1971</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2056</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2268; 13731</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>19988; 51636</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1970</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2091</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>14630; 34907</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>21442; 64449</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1973</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2076</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>19176; 42877</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>45042; 102660</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>17958</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>17243</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>38372</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>18524</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>56329</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>35766</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1938</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2084</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>10402; 28391</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>6525; 28246</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2017</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2087</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>26455; 52300</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>12735; 26682</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1979</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2087</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>42485; 74803</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>20827; 48398</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>61063</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>110924</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>130939</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>144810</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>192002</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>255734</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>0; 1957</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>0; 2050</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>47072; 77007</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>83140; 139200</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>0; 2072</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>108211; 154030</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>113627; 170815</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>0; 1963</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>0; 2061</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>165041; 219583</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>219530; 297898</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>